--- a/config_debug/act_027_jqshl_config.xlsx
+++ b/config_debug/act_027_jqshl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>index</t>
   </si>
@@ -744,15 +744,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.累计充值任务只记录游戏商城中的充值，不包含带有“推荐必买”和“活动”标签的商品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.苹果大战的数据不计入活动统计。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.每日0点重置所有任务，未领取的奖励视为自动放弃</t>
+    <t>5.苹果大战的数据不计入活动统计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.每日0点重置所有任务，未领取的奖励视为自动放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.累计充值任务只记录游戏商城中的充值，不包含带有“推荐必买”和“活动”标签的商品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.累计消耗只统计游戏消耗，不包括任务或场景刷新产生的消耗。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1586,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1699,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1739,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1747,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1755,11 +1759,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/act_027_jqshl_config.xlsx
+++ b/config_debug/act_027_jqshl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>index</t>
   </si>
@@ -383,6 +383,10 @@
   </si>
   <si>
     <t>ty_icon_flq5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000福利券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1327,7 +1331,7 @@
         <v>96</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="I25" s="8"/>
     </row>
@@ -1510,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config_debug/act_027_jqshl_config.xlsx
+++ b/config_debug/act_027_jqshl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -797,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1583,7 +1583,7 @@
         <v>97</v>
       </c>
       <c r="G2" s="1">
-        <v>1618876800</v>
+        <v>1619481600</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>24</v>
